--- a/src/main/resources/Data/TestData.xlsx
+++ b/src/main/resources/Data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkhare\git\VMS_Automation_TestNG_Cucumber\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621DD8A0-826F-479B-BA03-7A0C5D79EF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B4029E-FA66-4317-96C0-B7B1AB9C07C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>LRN</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>qamars</t>
-  </si>
-  <si>
-    <t>Abhijeet.Patil@prounlimited.com</t>
   </si>
   <si>
     <t>qamercury</t>
@@ -584,7 +581,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +608,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -625,13 +622,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -639,23 +636,23 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{67E7681D-448D-4966-93BB-17333FE35FDF}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{C40A6131-BDDE-4D7C-9543-A4D2D81F84EE}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{C40A6131-BDDE-4D7C-9543-A4D2D81F84EE}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{44089507-7046-4A11-B347-FC7D6AE470BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>

--- a/src/main/resources/Data/TestData.xlsx
+++ b/src/main/resources/Data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkhare\git\VMS_Automation_TestNG_Cucumber\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B4029E-FA66-4317-96C0-B7B1AB9C07C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4655B99D-A918-47F3-B056-82DE164BDE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>LRN</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Balerion@22</t>
+  </si>
+  <si>
+    <t>abhijeet.patil@prounlimited.com</t>
+  </si>
+  <si>
+    <t>qajupiter</t>
   </si>
   <si>
     <t>sunil.kumar@prounlimited.com</t>
@@ -578,10 +584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A0FDD4-DE88-45B7-A9C9-2B6BD3169885}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,13 +654,28 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{C40A6131-BDDE-4D7C-9543-A4D2D81F84EE}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{44089507-7046-4A11-B347-FC7D6AE470BF}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{C8B870FB-E110-405B-A8AB-30D635D0FA01}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{6F1D03E4-9D21-4E12-A02C-F298768E3043}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/src/main/resources/Data/TestData.xlsx
+++ b/src/main/resources/Data/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkhare\git\VMS_Automation_TestNG_Cucumber\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4655B99D-A918-47F3-B056-82DE164BDE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662B7976-A25D-4408-9F2F-02814B4016F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>LRN</t>
   </si>
@@ -77,9 +77,6 @@
     <t>rdhanekula</t>
   </si>
   <si>
-    <t>Logan@31</t>
-  </si>
-  <si>
     <t>qamars</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>Balerion@22</t>
-  </si>
-  <si>
     <t>abhijeet.patil@prounlimited.com</t>
   </si>
   <si>
@@ -99,13 +93,16 @@
   </si>
   <si>
     <t>sunil.kumar@prounlimited.com</t>
+  </si>
+  <si>
+    <t>Elcano@270</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,14 +145,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -212,18 +201,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -587,7 +573,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,80 +588,79 @@
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{C40A6131-BDDE-4D7C-9543-A4D2D81F84EE}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{C8B870FB-E110-405B-A8AB-30D635D0FA01}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{6F1D03E4-9D21-4E12-A02C-F298768E3043}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{C8B870FB-E110-405B-A8AB-30D635D0FA01}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{6F1D03E4-9D21-4E12-A02C-F298768E3043}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>